--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1504.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1504.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.566500612199669</v>
+        <v>1.184479951858521</v>
       </c>
       <c r="B1">
-        <v>2.539963148951921</v>
+        <v>1.851878643035889</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.452043533325195</v>
       </c>
       <c r="D1">
-        <v>1.267534185191258</v>
+        <v>1.690649032592773</v>
       </c>
       <c r="E1">
-        <v>0.6639452511131816</v>
+        <v>0.4554994702339172</v>
       </c>
     </row>
   </sheetData>
